--- a/revisi/Catatan Penguji 1.xlsx
+++ b/revisi/Catatan Penguji 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\tesis\revisi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C60195F-679B-4B0C-87BC-1DBE0A27C606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A38DAD3-3EDC-4FAF-AEA7-31E4F878208A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>No</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Sudah diubah</t>
+  </si>
+  <si>
+    <t>Kosmetik, mungkin dipersempit lagi ke PT</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,11 +505,14 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/revisi/Catatan Penguji 1.xlsx
+++ b/revisi/Catatan Penguji 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\tesis\revisi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A38DAD3-3EDC-4FAF-AEA7-31E4F878208A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52231A0B-83C4-4503-9BDD-595451610054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -49,7 +49,13 @@
     <t>Sudah diubah</t>
   </si>
   <si>
-    <t>Kosmetik, mungkin dipersempit lagi ke PT</t>
+    <t>Industri, kosmetik, di Tangerang Raya</t>
+  </si>
+  <si>
+    <t>Akan diubah saat pembuatan BAB 4 dan BAB 5</t>
+  </si>
+  <si>
+    <t>Ditambah indeks daya saing digital di Banten</t>
   </si>
 </sst>
 </file>
@@ -73,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +89,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -114,12 +126,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,76 +477,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="140.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/revisi/Catatan Penguji 1.xlsx
+++ b/revisi/Catatan Penguji 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\tesis\revisi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52231A0B-83C4-4503-9BDD-595451610054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F697698-CB05-4EAB-912D-0FC059DC2F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
